--- a/existif2/exis.xlsx
+++ b/existif2/exis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\木津\Development\imaging-tools\existif2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B8FF1-2916-4B79-A8CD-D97EC795FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44801C-2170-4795-8A99-9006B50F6BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9CD2D1BE-878D-4C79-AA21-B5B081B4529C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>D=15</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count &gt;=1lp/mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avg.mtf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D=30,θ=0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -502,19 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B229C67-3BB7-42CF-BA6F-3BA69B2B8C41}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="10" max="10" width="10.3125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="11.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -540,270 +553,481 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
+      <c r="B2">
+        <v>2028</v>
+      </c>
+      <c r="C2">
+        <v>2033</v>
+      </c>
+      <c r="D2">
+        <v>1933</v>
+      </c>
+      <c r="E2">
+        <v>1970</v>
+      </c>
+      <c r="F2">
+        <v>1970</v>
+      </c>
+      <c r="G2">
+        <v>1938</v>
+      </c>
+      <c r="H2">
+        <v>1880</v>
+      </c>
+      <c r="J2">
+        <v>1869</v>
+      </c>
+      <c r="K2">
+        <v>1816</v>
+      </c>
+      <c r="L2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3">
+        <v>2313</v>
+      </c>
+      <c r="C3">
+        <v>2313</v>
+      </c>
+      <c r="D3">
+        <v>2207</v>
+      </c>
+      <c r="E3">
+        <v>2244</v>
+      </c>
+      <c r="F3">
+        <v>2212</v>
+      </c>
+      <c r="G3">
+        <v>2202</v>
+      </c>
+      <c r="H3">
+        <v>2149</v>
+      </c>
+      <c r="J3">
+        <v>2138</v>
+      </c>
+      <c r="K3">
+        <v>2049</v>
+      </c>
+      <c r="L3">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="B4">
+        <v>2851</v>
+      </c>
+      <c r="C4">
+        <v>2835</v>
+      </c>
+      <c r="D4">
+        <v>2862</v>
+      </c>
+      <c r="E4">
+        <v>2883</v>
+      </c>
+      <c r="F4">
+        <v>2846</v>
+      </c>
+      <c r="G4">
+        <v>2862</v>
+      </c>
+      <c r="H4">
+        <v>2867</v>
+      </c>
+      <c r="J4">
+        <v>2883</v>
+      </c>
+      <c r="K4">
+        <v>2867</v>
+      </c>
+      <c r="L4">
+        <v>2461</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5">
+        <v>3173</v>
+      </c>
+      <c r="C5">
+        <v>3141</v>
+      </c>
+      <c r="D5">
+        <v>3173</v>
+      </c>
+      <c r="E5">
+        <v>3178</v>
+      </c>
+      <c r="F5">
+        <v>3136</v>
+      </c>
+      <c r="G5">
+        <v>3157</v>
+      </c>
+      <c r="H5">
+        <v>3152</v>
+      </c>
+      <c r="J5">
+        <v>3168</v>
+      </c>
+      <c r="K5">
+        <v>3168</v>
+      </c>
+      <c r="L5">
+        <v>2777</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:H6" si="0">B3-B2</f>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="I6">
         <f>I3-I2</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>J3-J2</f>
-        <v>0</v>
+        <f t="shared" ref="J6" si="1">J3-J2</f>
+        <v>269</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:R6" si="1">K3-K2</f>
-        <v>0</v>
+        <f>K3-K2</f>
+        <v>233</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="L6:S6" si="2">L3-L2</f>
+        <v>262</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:H7" si="2">B5-B4</f>
-        <v>0</v>
+        <f t="shared" ref="B7:H7" si="3">B5-B4</f>
+        <v>322</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>306</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>311</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>295</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>290</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>295</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>285</v>
       </c>
       <c r="I7">
         <f>I5-I4</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>J5-J4</f>
-        <v>0</v>
+        <f t="shared" ref="J7" si="4">J5-J4</f>
+        <v>285</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:R7" si="3">K5-K4</f>
-        <v>0</v>
+        <f>K5-K4</f>
+        <v>301</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="L7:S7" si="5">L5-L4</f>
+        <v>316</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:H8" si="4">(B3-B2)*(B5-B4)</f>
-        <v>0</v>
+        <f t="shared" ref="B8:H8" si="6">(B3-B2)*(B5-B4)</f>
+        <v>91770</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>85680</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>85214</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>80830</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70180</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>77880</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>76665</v>
       </c>
       <c r="I8">
         <f>(I3-I2)*(I5-I4)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>(J3-J2)*(J5-J4)</f>
-        <v>0</v>
+        <f t="shared" ref="J8" si="7">(J3-J2)*(J5-J4)</f>
+        <v>76665</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:R8" si="5">(K3-K2)*(K5-K4)</f>
-        <v>0</v>
+        <f>(K3-K2)*(K5-K4)</f>
+        <v>70133</v>
       </c>
       <c r="L8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="L8:S8" si="8">(L3-L2)*(L5-L4)</f>
+        <v>82792</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <v>104</v>
+      </c>
+      <c r="H9">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>81</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.71509755135714204</v>
+      </c>
+      <c r="C10">
+        <v>0.72985213871874999</v>
+      </c>
+      <c r="D10">
+        <v>0.66884037876190405</v>
+      </c>
+      <c r="E10">
+        <v>0.70303728739655102</v>
+      </c>
+      <c r="F10">
+        <v>0.62997177441139196</v>
+      </c>
+      <c r="G10">
+        <v>0.71649797538461502</v>
+      </c>
+      <c r="H10">
+        <v>0.69631952806521702</v>
+      </c>
+      <c r="J10">
+        <v>0.75262167262962898</v>
+      </c>
+      <c r="K10">
+        <v>0.60632329689999998</v>
+      </c>
+      <c r="L10">
+        <v>0.53899556115384595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <f>B3 * 91770 / ((15/35)*35)</f>
+        <v>14150934</v>
       </c>
     </row>
   </sheetData>
